--- a/biology/Botanique/Saxifrage_à_feuilles_opposées/Saxifrage_à_feuilles_opposées.xlsx
+++ b/biology/Botanique/Saxifrage_à_feuilles_opposées/Saxifrage_à_feuilles_opposées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saxifrage_%C3%A0_feuilles_oppos%C3%A9es</t>
+          <t>Saxifrage_à_feuilles_opposées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saxifraga oppositifolia
 La Saxifrage à feuilles opposées (Saxifraga oppositifolia) est une espèce de plante herbacée vivace du genre Saxifraga et de la famille des Saxifragacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saxifrage_%C3%A0_feuilles_oppos%C3%A9es</t>
+          <t>Saxifrage_à_feuilles_opposées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fleurs sont roses ou violacées. Les étamines peuvent être orangées. L'altitude maximale habituellement rencontrée où poussent ces fleurs sous forme de petits coussins, est de 3 800 m. Cependant, en 2011 et en Suisse, un botaniste a fait la découverte insolite d'une Saxifraga oppositifolia à plus de 4 505 m, altitude à laquelle le gel est effectif chaque nuit[1],[2]. En 2012, en France, cette plante a été rencontrée par des chercheurs à 4 070 m dans le massif des Écrins ; c'est la première fois qu'une plante est découverte à plus de 4 000 m dans les Alpes françaises[2].
-Cette plante avait été découverte en 1878 à 3 700 m d'altitude, parmi trois espèces de plantes, par l'alpiniste Paul Guillemin ; l'existence de plantes à une telle altitude était une révolution dans la connaissance en botanique de cette époque[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont roses ou violacées. Les étamines peuvent être orangées. L'altitude maximale habituellement rencontrée où poussent ces fleurs sous forme de petits coussins, est de 3 800 m. Cependant, en 2011 et en Suisse, un botaniste a fait la découverte insolite d'une Saxifraga oppositifolia à plus de 4 505 m, altitude à laquelle le gel est effectif chaque nuit,. En 2012, en France, cette plante a été rencontrée par des chercheurs à 4 070 m dans le massif des Écrins ; c'est la première fois qu'une plante est découverte à plus de 4 000 m dans les Alpes françaises.
+Cette plante avait été découverte en 1878 à 3 700 m d'altitude, parmi trois espèces de plantes, par l'alpiniste Paul Guillemin ; l'existence de plantes à une telle altitude était une révolution dans la connaissance en botanique de cette époque.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saxifrage_%C3%A0_feuilles_oppos%C3%A9es</t>
+          <t>Saxifrage_à_feuilles_opposées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France cette espèce est protégée en Auvergne (Article 1).
 </t>
